--- a/biology/Botanique/Artemisia_campestris/Artemisia_campestris.xlsx
+++ b/biology/Botanique/Artemisia_campestris/Artemisia_campestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Artemisia campestris, l'Armoise des champs, est une espèce de plantes à fleurs de la famille des Asteraceae[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Artemisia campestris, l'Armoise des champs, est une espèce de plantes à fleurs de la famille des Asteraceae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juillet à novembre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juillet à novembre.
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (27 août 2014)[4]. :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (27 août 2014). :
 Artemisia campestris subsp. alpina (DC.) Arcang.
 Artemisia campestris subsp. borealis (Pall.) H.M.Hall &amp; Clem.
 Artemisia campestris subsp. bottnica Lundstr. ex Kindb.
@@ -581,7 +599,7 @@
 Artemisia campestris subsp. maritima (DC.) Arcang. (Armoise de Lloyd)
 Artemisia campestris subsp. pacifica (Nutt.) H.M.Hall &amp; Clem.
 Artemisia campestris subsp. variabilis (Ten.) Greuter
-Selon Tropicos                                           (27 août 2014)[1]. (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 août 2014). (Attention liste brute contenant possiblement des synonymes) :
 Artemisia campestris subsp. borealis (Pall.) H.M. Hall &amp; Clem.
 Artemisia campestris subsp. campestris
 Artemisia campestris subsp. canadensis (Michx.) Scoggan
@@ -611,7 +629,7 @@
 Artemisia campestris var. steveniana Besser
 Artemisia campestris var. strutziae S.L. Welsh
 Artemisia campestris var. wormskioldii (Besser) Cronquist
-La sous-espèce Artemisia campestris subsp. cinerea Le Houér. (1995) est endémique de la Tunisie[5].
+La sous-espèce Artemisia campestris subsp. cinerea Le Houér. (1995) est endémique de la Tunisie.
 </t>
         </is>
       </c>
@@ -640,7 +658,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est un hôte pour les chenilles des papillons Cucullia argentea et Diacrisia purpurata.
 La plante pousse souvent en compagnie de Jurinea cyanoides.
@@ -672,7 +692,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Bourgogne.
 En Belgique, elle est légalement protégée.
